--- a/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorkerCareerInternalRoleAccess.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorkerCareerInternalRoleAccess.xlsx
@@ -10934,8 +10934,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G627"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="F129" sqref="F129"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorkerCareerInternalRoleAccess.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorkerCareerInternalRoleAccess.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6000"/>
   </bookViews>
   <sheets>
     <sheet name="DataLookUp" sheetId="1" r:id="rId1"/>
@@ -4584,6 +4584,238 @@
           </cell>
           <cell r="M557">
             <v>164000000000556</v>
+          </cell>
+        </row>
+        <row r="558">
+          <cell r="B558" t="str">
+            <v>Abdul Rachman</v>
+          </cell>
+          <cell r="M558">
+            <v>164000000000557</v>
+          </cell>
+        </row>
+        <row r="559">
+          <cell r="B559" t="str">
+            <v>Aden Bagus</v>
+          </cell>
+          <cell r="M559">
+            <v>164000000000558</v>
+          </cell>
+        </row>
+        <row r="560">
+          <cell r="B560" t="str">
+            <v>Adhe Kurniawan</v>
+          </cell>
+          <cell r="M560">
+            <v>164000000000559</v>
+          </cell>
+        </row>
+        <row r="561">
+          <cell r="B561" t="str">
+            <v>Ahmad Fauzi</v>
+          </cell>
+          <cell r="M561">
+            <v>164000000000560</v>
+          </cell>
+        </row>
+        <row r="562">
+          <cell r="B562" t="str">
+            <v>Ahmad Gunawan</v>
+          </cell>
+          <cell r="M562">
+            <v>164000000000561</v>
+          </cell>
+        </row>
+        <row r="563">
+          <cell r="B563" t="str">
+            <v>Andri Andriyan</v>
+          </cell>
+          <cell r="M563">
+            <v>164000000000562</v>
+          </cell>
+        </row>
+        <row r="564">
+          <cell r="B564" t="str">
+            <v>Budi Sulistianto</v>
+          </cell>
+          <cell r="M564">
+            <v>164000000000563</v>
+          </cell>
+        </row>
+        <row r="565">
+          <cell r="B565" t="str">
+            <v>Eka Budi</v>
+          </cell>
+          <cell r="M565">
+            <v>164000000000564</v>
+          </cell>
+        </row>
+        <row r="566">
+          <cell r="B566" t="str">
+            <v>Eka Kurniawan</v>
+          </cell>
+          <cell r="M566">
+            <v>164000000000565</v>
+          </cell>
+        </row>
+        <row r="567">
+          <cell r="B567" t="str">
+            <v>Haerul Gunawan</v>
+          </cell>
+          <cell r="M567">
+            <v>164000000000566</v>
+          </cell>
+        </row>
+        <row r="568">
+          <cell r="B568" t="str">
+            <v>Irvan Agus</v>
+          </cell>
+          <cell r="M568">
+            <v>164000000000567</v>
+          </cell>
+        </row>
+        <row r="569">
+          <cell r="B569" t="str">
+            <v>Joshika Pradirga</v>
+          </cell>
+          <cell r="M569">
+            <v>164000000000568</v>
+          </cell>
+        </row>
+        <row r="570">
+          <cell r="B570" t="str">
+            <v>Khaidir</v>
+          </cell>
+          <cell r="M570">
+            <v>164000000000569</v>
+          </cell>
+        </row>
+        <row r="571">
+          <cell r="B571" t="str">
+            <v>Latip Muhlanto</v>
+          </cell>
+          <cell r="M571">
+            <v>164000000000570</v>
+          </cell>
+        </row>
+        <row r="572">
+          <cell r="B572" t="str">
+            <v>Leonardo Putra</v>
+          </cell>
+          <cell r="M572">
+            <v>164000000000571</v>
+          </cell>
+        </row>
+        <row r="573">
+          <cell r="B573" t="str">
+            <v>Muhammad Ramadani</v>
+          </cell>
+          <cell r="M573">
+            <v>164000000000572</v>
+          </cell>
+        </row>
+        <row r="574">
+          <cell r="B574" t="str">
+            <v>Musdalipa</v>
+          </cell>
+          <cell r="M574">
+            <v>164000000000573</v>
+          </cell>
+        </row>
+        <row r="575">
+          <cell r="B575" t="str">
+            <v>Nico Melky</v>
+          </cell>
+          <cell r="M575">
+            <v>164000000000574</v>
+          </cell>
+        </row>
+        <row r="576">
+          <cell r="B576" t="str">
+            <v>Rahmata Novanisa</v>
+          </cell>
+          <cell r="M576">
+            <v>164000000000575</v>
+          </cell>
+        </row>
+        <row r="577">
+          <cell r="B577" t="str">
+            <v>Satrio Dhiaputra</v>
+          </cell>
+          <cell r="M577">
+            <v>164000000000576</v>
+          </cell>
+        </row>
+        <row r="578">
+          <cell r="B578" t="str">
+            <v>Sudirman</v>
+          </cell>
+          <cell r="M578">
+            <v>164000000000577</v>
+          </cell>
+        </row>
+        <row r="579">
+          <cell r="B579" t="str">
+            <v>Suparji</v>
+          </cell>
+          <cell r="M579">
+            <v>164000000000578</v>
+          </cell>
+        </row>
+        <row r="580">
+          <cell r="B580" t="str">
+            <v>Taufik Iskandar</v>
+          </cell>
+          <cell r="M580">
+            <v>164000000000579</v>
+          </cell>
+        </row>
+        <row r="581">
+          <cell r="B581" t="str">
+            <v>Tegar Hersaputra</v>
+          </cell>
+          <cell r="M581">
+            <v>164000000000580</v>
+          </cell>
+        </row>
+        <row r="582">
+          <cell r="B582" t="str">
+            <v>Togar Sihombing</v>
+          </cell>
+          <cell r="M582">
+            <v>164000000000581</v>
+          </cell>
+        </row>
+        <row r="583">
+          <cell r="B583" t="str">
+            <v>Wisnu Trenggono</v>
+          </cell>
+          <cell r="M583">
+            <v>164000000000582</v>
+          </cell>
+        </row>
+        <row r="584">
+          <cell r="B584" t="str">
+            <v>Yogo</v>
+          </cell>
+          <cell r="M584">
+            <v>164000000000583</v>
+          </cell>
+        </row>
+        <row r="585">
+          <cell r="B585" t="str">
+            <v>Yustiana Firda</v>
+          </cell>
+          <cell r="M585">
+            <v>164000000000584</v>
+          </cell>
+        </row>
+        <row r="586">
+          <cell r="B586" t="str">
+            <v>Zainal Abidin</v>
+          </cell>
+          <cell r="M586">
+            <v>164000000000585</v>
           </cell>
         </row>
       </sheetData>
@@ -4882,7 +5114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C604"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -10455,293 +10687,293 @@
       </c>
     </row>
     <row r="558" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B558" s="1" t="str">
+      <c r="B558" s="1">
         <f>IF(EXACT('[1]Internal Career (Last Position)'!$M558, ""), "", '[1]Internal Career (Last Position)'!$M558)</f>
-        <v/>
+        <v>164000000000557</v>
       </c>
       <c r="C558" s="2" t="str">
         <f>IF(EXACT($B558, ""), "", '[1]Internal Career (Last Position)'!$B558)</f>
-        <v/>
+        <v>Abdul Rachman</v>
       </c>
     </row>
     <row r="559" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B559" s="1" t="str">
+      <c r="B559" s="1">
         <f>IF(EXACT('[1]Internal Career (Last Position)'!$M559, ""), "", '[1]Internal Career (Last Position)'!$M559)</f>
-        <v/>
+        <v>164000000000558</v>
       </c>
       <c r="C559" s="2" t="str">
         <f>IF(EXACT($B559, ""), "", '[1]Internal Career (Last Position)'!$B559)</f>
-        <v/>
+        <v>Aden Bagus</v>
       </c>
     </row>
     <row r="560" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B560" s="1" t="str">
+      <c r="B560" s="1">
         <f>IF(EXACT('[1]Internal Career (Last Position)'!$M560, ""), "", '[1]Internal Career (Last Position)'!$M560)</f>
-        <v/>
+        <v>164000000000559</v>
       </c>
       <c r="C560" s="2" t="str">
         <f>IF(EXACT($B560, ""), "", '[1]Internal Career (Last Position)'!$B560)</f>
-        <v/>
+        <v>Adhe Kurniawan</v>
       </c>
     </row>
     <row r="561" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B561" s="1" t="str">
+      <c r="B561" s="1">
         <f>IF(EXACT('[1]Internal Career (Last Position)'!$M561, ""), "", '[1]Internal Career (Last Position)'!$M561)</f>
-        <v/>
+        <v>164000000000560</v>
       </c>
       <c r="C561" s="2" t="str">
         <f>IF(EXACT($B561, ""), "", '[1]Internal Career (Last Position)'!$B561)</f>
-        <v/>
+        <v>Ahmad Fauzi</v>
       </c>
     </row>
     <row r="562" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B562" s="1" t="str">
+      <c r="B562" s="1">
         <f>IF(EXACT('[1]Internal Career (Last Position)'!$M562, ""), "", '[1]Internal Career (Last Position)'!$M562)</f>
-        <v/>
+        <v>164000000000561</v>
       </c>
       <c r="C562" s="2" t="str">
         <f>IF(EXACT($B562, ""), "", '[1]Internal Career (Last Position)'!$B562)</f>
-        <v/>
+        <v>Ahmad Gunawan</v>
       </c>
     </row>
     <row r="563" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B563" s="1" t="str">
+      <c r="B563" s="1">
         <f>IF(EXACT('[1]Internal Career (Last Position)'!$M563, ""), "", '[1]Internal Career (Last Position)'!$M563)</f>
-        <v/>
+        <v>164000000000562</v>
       </c>
       <c r="C563" s="2" t="str">
         <f>IF(EXACT($B563, ""), "", '[1]Internal Career (Last Position)'!$B563)</f>
-        <v/>
+        <v>Andri Andriyan</v>
       </c>
     </row>
     <row r="564" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B564" s="1" t="str">
+      <c r="B564" s="1">
         <f>IF(EXACT('[1]Internal Career (Last Position)'!$M564, ""), "", '[1]Internal Career (Last Position)'!$M564)</f>
-        <v/>
+        <v>164000000000563</v>
       </c>
       <c r="C564" s="2" t="str">
         <f>IF(EXACT($B564, ""), "", '[1]Internal Career (Last Position)'!$B564)</f>
-        <v/>
+        <v>Budi Sulistianto</v>
       </c>
     </row>
     <row r="565" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B565" s="1" t="str">
+      <c r="B565" s="1">
         <f>IF(EXACT('[1]Internal Career (Last Position)'!$M565, ""), "", '[1]Internal Career (Last Position)'!$M565)</f>
-        <v/>
+        <v>164000000000564</v>
       </c>
       <c r="C565" s="2" t="str">
         <f>IF(EXACT($B565, ""), "", '[1]Internal Career (Last Position)'!$B565)</f>
-        <v/>
+        <v>Eka Budi</v>
       </c>
     </row>
     <row r="566" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B566" s="1" t="str">
+      <c r="B566" s="1">
         <f>IF(EXACT('[1]Internal Career (Last Position)'!$M566, ""), "", '[1]Internal Career (Last Position)'!$M566)</f>
-        <v/>
+        <v>164000000000565</v>
       </c>
       <c r="C566" s="2" t="str">
         <f>IF(EXACT($B566, ""), "", '[1]Internal Career (Last Position)'!$B566)</f>
-        <v/>
+        <v>Eka Kurniawan</v>
       </c>
     </row>
     <row r="567" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B567" s="1" t="str">
+      <c r="B567" s="1">
         <f>IF(EXACT('[1]Internal Career (Last Position)'!$M567, ""), "", '[1]Internal Career (Last Position)'!$M567)</f>
-        <v/>
+        <v>164000000000566</v>
       </c>
       <c r="C567" s="2" t="str">
         <f>IF(EXACT($B567, ""), "", '[1]Internal Career (Last Position)'!$B567)</f>
-        <v/>
+        <v>Haerul Gunawan</v>
       </c>
     </row>
     <row r="568" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B568" s="1" t="str">
+      <c r="B568" s="1">
         <f>IF(EXACT('[1]Internal Career (Last Position)'!$M568, ""), "", '[1]Internal Career (Last Position)'!$M568)</f>
-        <v/>
+        <v>164000000000567</v>
       </c>
       <c r="C568" s="2" t="str">
         <f>IF(EXACT($B568, ""), "", '[1]Internal Career (Last Position)'!$B568)</f>
-        <v/>
+        <v>Irvan Agus</v>
       </c>
     </row>
     <row r="569" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B569" s="1" t="str">
+      <c r="B569" s="1">
         <f>IF(EXACT('[1]Internal Career (Last Position)'!$M569, ""), "", '[1]Internal Career (Last Position)'!$M569)</f>
-        <v/>
+        <v>164000000000568</v>
       </c>
       <c r="C569" s="2" t="str">
         <f>IF(EXACT($B569, ""), "", '[1]Internal Career (Last Position)'!$B569)</f>
-        <v/>
+        <v>Joshika Pradirga</v>
       </c>
     </row>
     <row r="570" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B570" s="1" t="str">
+      <c r="B570" s="1">
         <f>IF(EXACT('[1]Internal Career (Last Position)'!$M570, ""), "", '[1]Internal Career (Last Position)'!$M570)</f>
-        <v/>
+        <v>164000000000569</v>
       </c>
       <c r="C570" s="2" t="str">
         <f>IF(EXACT($B570, ""), "", '[1]Internal Career (Last Position)'!$B570)</f>
-        <v/>
+        <v>Khaidir</v>
       </c>
     </row>
     <row r="571" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B571" s="1" t="str">
+      <c r="B571" s="1">
         <f>IF(EXACT('[1]Internal Career (Last Position)'!$M571, ""), "", '[1]Internal Career (Last Position)'!$M571)</f>
-        <v/>
+        <v>164000000000570</v>
       </c>
       <c r="C571" s="2" t="str">
         <f>IF(EXACT($B571, ""), "", '[1]Internal Career (Last Position)'!$B571)</f>
-        <v/>
+        <v>Latip Muhlanto</v>
       </c>
     </row>
     <row r="572" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B572" s="1" t="str">
+      <c r="B572" s="1">
         <f>IF(EXACT('[1]Internal Career (Last Position)'!$M572, ""), "", '[1]Internal Career (Last Position)'!$M572)</f>
-        <v/>
+        <v>164000000000571</v>
       </c>
       <c r="C572" s="2" t="str">
         <f>IF(EXACT($B572, ""), "", '[1]Internal Career (Last Position)'!$B572)</f>
-        <v/>
+        <v>Leonardo Putra</v>
       </c>
     </row>
     <row r="573" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B573" s="1" t="str">
+      <c r="B573" s="1">
         <f>IF(EXACT('[1]Internal Career (Last Position)'!$M573, ""), "", '[1]Internal Career (Last Position)'!$M573)</f>
-        <v/>
+        <v>164000000000572</v>
       </c>
       <c r="C573" s="2" t="str">
         <f>IF(EXACT($B573, ""), "", '[1]Internal Career (Last Position)'!$B573)</f>
-        <v/>
+        <v>Muhammad Ramadani</v>
       </c>
     </row>
     <row r="574" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B574" s="1" t="str">
+      <c r="B574" s="1">
         <f>IF(EXACT('[1]Internal Career (Last Position)'!$M574, ""), "", '[1]Internal Career (Last Position)'!$M574)</f>
-        <v/>
+        <v>164000000000573</v>
       </c>
       <c r="C574" s="2" t="str">
         <f>IF(EXACT($B574, ""), "", '[1]Internal Career (Last Position)'!$B574)</f>
-        <v/>
+        <v>Musdalipa</v>
       </c>
     </row>
     <row r="575" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B575" s="1" t="str">
+      <c r="B575" s="1">
         <f>IF(EXACT('[1]Internal Career (Last Position)'!$M575, ""), "", '[1]Internal Career (Last Position)'!$M575)</f>
-        <v/>
+        <v>164000000000574</v>
       </c>
       <c r="C575" s="2" t="str">
         <f>IF(EXACT($B575, ""), "", '[1]Internal Career (Last Position)'!$B575)</f>
-        <v/>
+        <v>Nico Melky</v>
       </c>
     </row>
     <row r="576" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B576" s="1" t="str">
+      <c r="B576" s="1">
         <f>IF(EXACT('[1]Internal Career (Last Position)'!$M576, ""), "", '[1]Internal Career (Last Position)'!$M576)</f>
-        <v/>
+        <v>164000000000575</v>
       </c>
       <c r="C576" s="2" t="str">
         <f>IF(EXACT($B576, ""), "", '[1]Internal Career (Last Position)'!$B576)</f>
-        <v/>
+        <v>Rahmata Novanisa</v>
       </c>
     </row>
     <row r="577" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B577" s="1" t="str">
+      <c r="B577" s="1">
         <f>IF(EXACT('[1]Internal Career (Last Position)'!$M577, ""), "", '[1]Internal Career (Last Position)'!$M577)</f>
-        <v/>
+        <v>164000000000576</v>
       </c>
       <c r="C577" s="2" t="str">
         <f>IF(EXACT($B577, ""), "", '[1]Internal Career (Last Position)'!$B577)</f>
-        <v/>
+        <v>Satrio Dhiaputra</v>
       </c>
     </row>
     <row r="578" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B578" s="1" t="str">
+      <c r="B578" s="1">
         <f>IF(EXACT('[1]Internal Career (Last Position)'!$M578, ""), "", '[1]Internal Career (Last Position)'!$M578)</f>
-        <v/>
+        <v>164000000000577</v>
       </c>
       <c r="C578" s="2" t="str">
         <f>IF(EXACT($B578, ""), "", '[1]Internal Career (Last Position)'!$B578)</f>
-        <v/>
+        <v>Sudirman</v>
       </c>
     </row>
     <row r="579" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B579" s="1" t="str">
+      <c r="B579" s="1">
         <f>IF(EXACT('[1]Internal Career (Last Position)'!$M579, ""), "", '[1]Internal Career (Last Position)'!$M579)</f>
-        <v/>
+        <v>164000000000578</v>
       </c>
       <c r="C579" s="2" t="str">
         <f>IF(EXACT($B579, ""), "", '[1]Internal Career (Last Position)'!$B579)</f>
-        <v/>
+        <v>Suparji</v>
       </c>
     </row>
     <row r="580" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B580" s="1" t="str">
+      <c r="B580" s="1">
         <f>IF(EXACT('[1]Internal Career (Last Position)'!$M580, ""), "", '[1]Internal Career (Last Position)'!$M580)</f>
-        <v/>
+        <v>164000000000579</v>
       </c>
       <c r="C580" s="2" t="str">
         <f>IF(EXACT($B580, ""), "", '[1]Internal Career (Last Position)'!$B580)</f>
-        <v/>
+        <v>Taufik Iskandar</v>
       </c>
     </row>
     <row r="581" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B581" s="1" t="str">
+      <c r="B581" s="1">
         <f>IF(EXACT('[1]Internal Career (Last Position)'!$M581, ""), "", '[1]Internal Career (Last Position)'!$M581)</f>
-        <v/>
+        <v>164000000000580</v>
       </c>
       <c r="C581" s="2" t="str">
         <f>IF(EXACT($B581, ""), "", '[1]Internal Career (Last Position)'!$B581)</f>
-        <v/>
+        <v>Tegar Hersaputra</v>
       </c>
     </row>
     <row r="582" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B582" s="1" t="str">
+      <c r="B582" s="1">
         <f>IF(EXACT('[1]Internal Career (Last Position)'!$M582, ""), "", '[1]Internal Career (Last Position)'!$M582)</f>
-        <v/>
+        <v>164000000000581</v>
       </c>
       <c r="C582" s="2" t="str">
         <f>IF(EXACT($B582, ""), "", '[1]Internal Career (Last Position)'!$B582)</f>
-        <v/>
+        <v>Togar Sihombing</v>
       </c>
     </row>
     <row r="583" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B583" s="1" t="str">
+      <c r="B583" s="1">
         <f>IF(EXACT('[1]Internal Career (Last Position)'!$M583, ""), "", '[1]Internal Career (Last Position)'!$M583)</f>
-        <v/>
+        <v>164000000000582</v>
       </c>
       <c r="C583" s="2" t="str">
         <f>IF(EXACT($B583, ""), "", '[1]Internal Career (Last Position)'!$B583)</f>
-        <v/>
+        <v>Wisnu Trenggono</v>
       </c>
     </row>
     <row r="584" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B584" s="1" t="str">
+      <c r="B584" s="1">
         <f>IF(EXACT('[1]Internal Career (Last Position)'!$M584, ""), "", '[1]Internal Career (Last Position)'!$M584)</f>
-        <v/>
+        <v>164000000000583</v>
       </c>
       <c r="C584" s="2" t="str">
         <f>IF(EXACT($B584, ""), "", '[1]Internal Career (Last Position)'!$B584)</f>
-        <v/>
+        <v>Yogo</v>
       </c>
     </row>
     <row r="585" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B585" s="1" t="str">
+      <c r="B585" s="1">
         <f>IF(EXACT('[1]Internal Career (Last Position)'!$M585, ""), "", '[1]Internal Career (Last Position)'!$M585)</f>
-        <v/>
+        <v>164000000000584</v>
       </c>
       <c r="C585" s="2" t="str">
         <f>IF(EXACT($B585, ""), "", '[1]Internal Career (Last Position)'!$B585)</f>
-        <v/>
+        <v>Yustiana Firda</v>
       </c>
     </row>
     <row r="586" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B586" s="1" t="str">
+      <c r="B586" s="1">
         <f>IF(EXACT('[1]Internal Career (Last Position)'!$M586, ""), "", '[1]Internal Career (Last Position)'!$M586)</f>
-        <v/>
+        <v>164000000000585</v>
       </c>
       <c r="C586" s="2" t="str">
         <f>IF(EXACT($B586, ""), "", '[1]Internal Career (Last Position)'!$B586)</f>
-        <v/>
+        <v>Zainal Abidin</v>
       </c>
     </row>
     <row r="587" spans="2:3" x14ac:dyDescent="0.2">
@@ -10934,7 +11166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G627"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -21013,319 +21245,319 @@
     <row r="558" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B558" s="2" t="str">
         <f>IF(EXACT(DataLookUp!$B558, ""), "", DataLookUp!$C558)</f>
-        <v/>
-      </c>
-      <c r="C558" s="1" t="str">
+        <v>Abdul Rachman</v>
+      </c>
+      <c r="C558" s="1">
         <f>IF(EXACT(DataLookUp!$B558, ""), "", DataLookUp!$B558)</f>
-        <v/>
+        <v>164000000000557</v>
       </c>
       <c r="D558" s="1"/>
     </row>
     <row r="559" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B559" s="2" t="str">
         <f>IF(EXACT(DataLookUp!$B559, ""), "", DataLookUp!$C559)</f>
-        <v/>
-      </c>
-      <c r="C559" s="1" t="str">
+        <v>Aden Bagus</v>
+      </c>
+      <c r="C559" s="1">
         <f>IF(EXACT(DataLookUp!$B559, ""), "", DataLookUp!$B559)</f>
-        <v/>
+        <v>164000000000558</v>
       </c>
       <c r="D559" s="1"/>
     </row>
     <row r="560" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B560" s="2" t="str">
         <f>IF(EXACT(DataLookUp!$B560, ""), "", DataLookUp!$C560)</f>
-        <v/>
-      </c>
-      <c r="C560" s="1" t="str">
+        <v>Adhe Kurniawan</v>
+      </c>
+      <c r="C560" s="1">
         <f>IF(EXACT(DataLookUp!$B560, ""), "", DataLookUp!$B560)</f>
-        <v/>
+        <v>164000000000559</v>
       </c>
       <c r="D560" s="1"/>
     </row>
     <row r="561" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B561" s="2" t="str">
         <f>IF(EXACT(DataLookUp!$B561, ""), "", DataLookUp!$C561)</f>
-        <v/>
-      </c>
-      <c r="C561" s="1" t="str">
+        <v>Ahmad Fauzi</v>
+      </c>
+      <c r="C561" s="1">
         <f>IF(EXACT(DataLookUp!$B561, ""), "", DataLookUp!$B561)</f>
-        <v/>
+        <v>164000000000560</v>
       </c>
       <c r="D561" s="1"/>
     </row>
     <row r="562" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B562" s="2" t="str">
         <f>IF(EXACT(DataLookUp!$B562, ""), "", DataLookUp!$C562)</f>
-        <v/>
-      </c>
-      <c r="C562" s="1" t="str">
+        <v>Ahmad Gunawan</v>
+      </c>
+      <c r="C562" s="1">
         <f>IF(EXACT(DataLookUp!$B562, ""), "", DataLookUp!$B562)</f>
-        <v/>
+        <v>164000000000561</v>
       </c>
       <c r="D562" s="1"/>
     </row>
     <row r="563" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B563" s="2" t="str">
         <f>IF(EXACT(DataLookUp!$B563, ""), "", DataLookUp!$C563)</f>
-        <v/>
-      </c>
-      <c r="C563" s="1" t="str">
+        <v>Andri Andriyan</v>
+      </c>
+      <c r="C563" s="1">
         <f>IF(EXACT(DataLookUp!$B563, ""), "", DataLookUp!$B563)</f>
-        <v/>
+        <v>164000000000562</v>
       </c>
       <c r="D563" s="1"/>
     </row>
     <row r="564" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B564" s="2" t="str">
         <f>IF(EXACT(DataLookUp!$B564, ""), "", DataLookUp!$C564)</f>
-        <v/>
-      </c>
-      <c r="C564" s="1" t="str">
+        <v>Budi Sulistianto</v>
+      </c>
+      <c r="C564" s="1">
         <f>IF(EXACT(DataLookUp!$B564, ""), "", DataLookUp!$B564)</f>
-        <v/>
+        <v>164000000000563</v>
       </c>
       <c r="D564" s="1"/>
     </row>
     <row r="565" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B565" s="2" t="str">
         <f>IF(EXACT(DataLookUp!$B565, ""), "", DataLookUp!$C565)</f>
-        <v/>
-      </c>
-      <c r="C565" s="1" t="str">
+        <v>Eka Budi</v>
+      </c>
+      <c r="C565" s="1">
         <f>IF(EXACT(DataLookUp!$B565, ""), "", DataLookUp!$B565)</f>
-        <v/>
+        <v>164000000000564</v>
       </c>
       <c r="D565" s="1"/>
     </row>
     <row r="566" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B566" s="2" t="str">
         <f>IF(EXACT(DataLookUp!$B566, ""), "", DataLookUp!$C566)</f>
-        <v/>
-      </c>
-      <c r="C566" s="1" t="str">
+        <v>Eka Kurniawan</v>
+      </c>
+      <c r="C566" s="1">
         <f>IF(EXACT(DataLookUp!$B566, ""), "", DataLookUp!$B566)</f>
-        <v/>
+        <v>164000000000565</v>
       </c>
       <c r="D566" s="1"/>
     </row>
     <row r="567" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B567" s="2" t="str">
         <f>IF(EXACT(DataLookUp!$B567, ""), "", DataLookUp!$C567)</f>
-        <v/>
-      </c>
-      <c r="C567" s="1" t="str">
+        <v>Haerul Gunawan</v>
+      </c>
+      <c r="C567" s="1">
         <f>IF(EXACT(DataLookUp!$B567, ""), "", DataLookUp!$B567)</f>
-        <v/>
+        <v>164000000000566</v>
       </c>
       <c r="D567" s="1"/>
     </row>
     <row r="568" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B568" s="2" t="str">
         <f>IF(EXACT(DataLookUp!$B568, ""), "", DataLookUp!$C568)</f>
-        <v/>
-      </c>
-      <c r="C568" s="1" t="str">
+        <v>Irvan Agus</v>
+      </c>
+      <c r="C568" s="1">
         <f>IF(EXACT(DataLookUp!$B568, ""), "", DataLookUp!$B568)</f>
-        <v/>
+        <v>164000000000567</v>
       </c>
       <c r="D568" s="1"/>
     </row>
     <row r="569" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B569" s="2" t="str">
         <f>IF(EXACT(DataLookUp!$B569, ""), "", DataLookUp!$C569)</f>
-        <v/>
-      </c>
-      <c r="C569" s="1" t="str">
+        <v>Joshika Pradirga</v>
+      </c>
+      <c r="C569" s="1">
         <f>IF(EXACT(DataLookUp!$B569, ""), "", DataLookUp!$B569)</f>
-        <v/>
+        <v>164000000000568</v>
       </c>
       <c r="D569" s="1"/>
     </row>
     <row r="570" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B570" s="2" t="str">
         <f>IF(EXACT(DataLookUp!$B570, ""), "", DataLookUp!$C570)</f>
-        <v/>
-      </c>
-      <c r="C570" s="1" t="str">
+        <v>Khaidir</v>
+      </c>
+      <c r="C570" s="1">
         <f>IF(EXACT(DataLookUp!$B570, ""), "", DataLookUp!$B570)</f>
-        <v/>
+        <v>164000000000569</v>
       </c>
       <c r="D570" s="1"/>
     </row>
     <row r="571" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B571" s="2" t="str">
         <f>IF(EXACT(DataLookUp!$B571, ""), "", DataLookUp!$C571)</f>
-        <v/>
-      </c>
-      <c r="C571" s="1" t="str">
+        <v>Latip Muhlanto</v>
+      </c>
+      <c r="C571" s="1">
         <f>IF(EXACT(DataLookUp!$B571, ""), "", DataLookUp!$B571)</f>
-        <v/>
+        <v>164000000000570</v>
       </c>
       <c r="D571" s="1"/>
     </row>
     <row r="572" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B572" s="2" t="str">
         <f>IF(EXACT(DataLookUp!$B572, ""), "", DataLookUp!$C572)</f>
-        <v/>
-      </c>
-      <c r="C572" s="1" t="str">
+        <v>Leonardo Putra</v>
+      </c>
+      <c r="C572" s="1">
         <f>IF(EXACT(DataLookUp!$B572, ""), "", DataLookUp!$B572)</f>
-        <v/>
+        <v>164000000000571</v>
       </c>
       <c r="D572" s="1"/>
     </row>
     <row r="573" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B573" s="2" t="str">
         <f>IF(EXACT(DataLookUp!$B573, ""), "", DataLookUp!$C573)</f>
-        <v/>
-      </c>
-      <c r="C573" s="1" t="str">
+        <v>Muhammad Ramadani</v>
+      </c>
+      <c r="C573" s="1">
         <f>IF(EXACT(DataLookUp!$B573, ""), "", DataLookUp!$B573)</f>
-        <v/>
+        <v>164000000000572</v>
       </c>
       <c r="D573" s="1"/>
     </row>
     <row r="574" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B574" s="2" t="str">
         <f>IF(EXACT(DataLookUp!$B574, ""), "", DataLookUp!$C574)</f>
-        <v/>
-      </c>
-      <c r="C574" s="1" t="str">
+        <v>Musdalipa</v>
+      </c>
+      <c r="C574" s="1">
         <f>IF(EXACT(DataLookUp!$B574, ""), "", DataLookUp!$B574)</f>
-        <v/>
+        <v>164000000000573</v>
       </c>
       <c r="D574" s="1"/>
     </row>
     <row r="575" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B575" s="2" t="str">
         <f>IF(EXACT(DataLookUp!$B575, ""), "", DataLookUp!$C575)</f>
-        <v/>
-      </c>
-      <c r="C575" s="1" t="str">
+        <v>Nico Melky</v>
+      </c>
+      <c r="C575" s="1">
         <f>IF(EXACT(DataLookUp!$B575, ""), "", DataLookUp!$B575)</f>
-        <v/>
+        <v>164000000000574</v>
       </c>
       <c r="D575" s="1"/>
     </row>
     <row r="576" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B576" s="2" t="str">
         <f>IF(EXACT(DataLookUp!$B576, ""), "", DataLookUp!$C576)</f>
-        <v/>
-      </c>
-      <c r="C576" s="1" t="str">
+        <v>Rahmata Novanisa</v>
+      </c>
+      <c r="C576" s="1">
         <f>IF(EXACT(DataLookUp!$B576, ""), "", DataLookUp!$B576)</f>
-        <v/>
+        <v>164000000000575</v>
       </c>
       <c r="D576" s="1"/>
     </row>
     <row r="577" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B577" s="2" t="str">
         <f>IF(EXACT(DataLookUp!$B577, ""), "", DataLookUp!$C577)</f>
-        <v/>
-      </c>
-      <c r="C577" s="1" t="str">
+        <v>Satrio Dhiaputra</v>
+      </c>
+      <c r="C577" s="1">
         <f>IF(EXACT(DataLookUp!$B577, ""), "", DataLookUp!$B577)</f>
-        <v/>
+        <v>164000000000576</v>
       </c>
       <c r="D577" s="1"/>
     </row>
     <row r="578" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B578" s="2" t="str">
         <f>IF(EXACT(DataLookUp!$B578, ""), "", DataLookUp!$C578)</f>
-        <v/>
-      </c>
-      <c r="C578" s="1" t="str">
+        <v>Sudirman</v>
+      </c>
+      <c r="C578" s="1">
         <f>IF(EXACT(DataLookUp!$B578, ""), "", DataLookUp!$B578)</f>
-        <v/>
+        <v>164000000000577</v>
       </c>
       <c r="D578" s="1"/>
     </row>
     <row r="579" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B579" s="2" t="str">
         <f>IF(EXACT(DataLookUp!$B579, ""), "", DataLookUp!$C579)</f>
-        <v/>
-      </c>
-      <c r="C579" s="1" t="str">
+        <v>Suparji</v>
+      </c>
+      <c r="C579" s="1">
         <f>IF(EXACT(DataLookUp!$B579, ""), "", DataLookUp!$B579)</f>
-        <v/>
+        <v>164000000000578</v>
       </c>
       <c r="D579" s="1"/>
     </row>
     <row r="580" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B580" s="2" t="str">
         <f>IF(EXACT(DataLookUp!$B580, ""), "", DataLookUp!$C580)</f>
-        <v/>
-      </c>
-      <c r="C580" s="1" t="str">
+        <v>Taufik Iskandar</v>
+      </c>
+      <c r="C580" s="1">
         <f>IF(EXACT(DataLookUp!$B580, ""), "", DataLookUp!$B580)</f>
-        <v/>
+        <v>164000000000579</v>
       </c>
       <c r="D580" s="1"/>
     </row>
     <row r="581" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B581" s="2" t="str">
         <f>IF(EXACT(DataLookUp!$B581, ""), "", DataLookUp!$C581)</f>
-        <v/>
-      </c>
-      <c r="C581" s="1" t="str">
+        <v>Tegar Hersaputra</v>
+      </c>
+      <c r="C581" s="1">
         <f>IF(EXACT(DataLookUp!$B581, ""), "", DataLookUp!$B581)</f>
-        <v/>
+        <v>164000000000580</v>
       </c>
       <c r="D581" s="1"/>
     </row>
     <row r="582" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B582" s="2" t="str">
         <f>IF(EXACT(DataLookUp!$B582, ""), "", DataLookUp!$C582)</f>
-        <v/>
-      </c>
-      <c r="C582" s="1" t="str">
+        <v>Togar Sihombing</v>
+      </c>
+      <c r="C582" s="1">
         <f>IF(EXACT(DataLookUp!$B582, ""), "", DataLookUp!$B582)</f>
-        <v/>
+        <v>164000000000581</v>
       </c>
       <c r="D582" s="1"/>
     </row>
     <row r="583" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B583" s="2" t="str">
         <f>IF(EXACT(DataLookUp!$B583, ""), "", DataLookUp!$C583)</f>
-        <v/>
-      </c>
-      <c r="C583" s="1" t="str">
+        <v>Wisnu Trenggono</v>
+      </c>
+      <c r="C583" s="1">
         <f>IF(EXACT(DataLookUp!$B583, ""), "", DataLookUp!$B583)</f>
-        <v/>
+        <v>164000000000582</v>
       </c>
       <c r="D583" s="1"/>
     </row>
     <row r="584" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B584" s="2" t="str">
         <f>IF(EXACT(DataLookUp!$B584, ""), "", DataLookUp!$C584)</f>
-        <v/>
-      </c>
-      <c r="C584" s="1" t="str">
+        <v>Yogo</v>
+      </c>
+      <c r="C584" s="1">
         <f>IF(EXACT(DataLookUp!$B584, ""), "", DataLookUp!$B584)</f>
-        <v/>
+        <v>164000000000583</v>
       </c>
       <c r="D584" s="1"/>
     </row>
     <row r="585" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B585" s="2" t="str">
         <f>IF(EXACT(DataLookUp!$B585, ""), "", DataLookUp!$C585)</f>
-        <v/>
-      </c>
-      <c r="C585" s="1" t="str">
+        <v>Yustiana Firda</v>
+      </c>
+      <c r="C585" s="1">
         <f>IF(EXACT(DataLookUp!$B585, ""), "", DataLookUp!$B585)</f>
-        <v/>
+        <v>164000000000584</v>
       </c>
       <c r="D585" s="1"/>
     </row>
     <row r="586" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B586" s="2" t="str">
         <f>IF(EXACT(DataLookUp!$B586, ""), "", DataLookUp!$C586)</f>
-        <v/>
-      </c>
-      <c r="C586" s="1" t="str">
+        <v>Zainal Abidin</v>
+      </c>
+      <c r="C586" s="1">
         <f>IF(EXACT(DataLookUp!$B586, ""), "", DataLookUp!$B586)</f>
-        <v/>
+        <v>164000000000585</v>
       </c>
       <c r="D586" s="1"/>
     </row>
